--- a/KeepTalking_Pins.xlsx
+++ b/KeepTalking_Pins.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien\Elektronik\Projekte\KeepTalkingBomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE98298-15C9-40A5-B40E-20F510BB841D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34776ADC-FBA3-43BF-BD6E-21E0F3935B32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{CEE79296-99E1-4E94-89D5-6769C9BCDA9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{CEE79296-99E1-4E94-89D5-6769C9BCDA9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arduino Mega" sheetId="1" r:id="rId1"/>
+    <sheet name="Arduino Mega" sheetId="5" r:id="rId1"/>
     <sheet name="MAX7219" sheetId="2" r:id="rId2"/>
     <sheet name="WS2812" sheetId="3" r:id="rId3"/>
-    <sheet name="Tabelle2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Arduino Mega'!$A$1:$D$63</definedName>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="232">
   <si>
     <t>Pin</t>
   </si>
@@ -260,12 +259,6 @@
     <t>Main</t>
   </si>
   <si>
-    <t>LED Strike1</t>
-  </si>
-  <si>
-    <t>LED Strike2</t>
-  </si>
-  <si>
     <t>Buzzer</t>
   </si>
   <si>
@@ -452,9 +445,6 @@
     <t>Button Password10</t>
   </si>
   <si>
-    <t>LED Morse</t>
-  </si>
-  <si>
     <t>Wires</t>
   </si>
   <si>
@@ -527,165 +517,12 @@
     <t>Button Simon4</t>
   </si>
   <si>
-    <t>LED Button1</t>
-  </si>
-  <si>
-    <t>LED Button2</t>
-  </si>
-  <si>
-    <t>LED Button3</t>
-  </si>
-  <si>
     <t>Simon</t>
   </si>
   <si>
-    <t>LED Simon1</t>
-  </si>
-  <si>
-    <t>LED Simon2</t>
-  </si>
-  <si>
-    <t>LED Simon3</t>
-  </si>
-  <si>
-    <t>LED Simon4</t>
-  </si>
-  <si>
-    <t>Button Button</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>BUZ1</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>S8</t>
-  </si>
-  <si>
-    <t>S9</t>
-  </si>
-  <si>
-    <t>S10</t>
-  </si>
-  <si>
-    <t>S11</t>
-  </si>
-  <si>
-    <t>S12</t>
-  </si>
-  <si>
-    <t>S13</t>
-  </si>
-  <si>
-    <t>S14</t>
-  </si>
-  <si>
-    <t>S15</t>
-  </si>
-  <si>
-    <t>S16</t>
-  </si>
-  <si>
-    <t>S17</t>
-  </si>
-  <si>
-    <t>S18</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>S22</t>
-  </si>
-  <si>
-    <t>S23</t>
-  </si>
-  <si>
-    <t>S24</t>
-  </si>
-  <si>
-    <t>S25</t>
-  </si>
-  <si>
-    <t>S26</t>
-  </si>
-  <si>
-    <t>S27</t>
-  </si>
-  <si>
-    <t>S28</t>
-  </si>
-  <si>
-    <t>S29</t>
-  </si>
-  <si>
-    <t>S30</t>
-  </si>
-  <si>
-    <t>S31</t>
-  </si>
-  <si>
-    <t>S32</t>
-  </si>
-  <si>
-    <t>S33</t>
-  </si>
-  <si>
-    <t>S34</t>
-  </si>
-  <si>
-    <t>S35</t>
-  </si>
-  <si>
     <t>Simon1</t>
   </si>
   <si>
@@ -704,18 +541,6 @@
     <t>Strike2</t>
   </si>
   <si>
-    <t>S36</t>
-  </si>
-  <si>
-    <t>LED22-24</t>
-  </si>
-  <si>
-    <t>LED25-26</t>
-  </si>
-  <si>
-    <t>LED27-28</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -794,15 +619,6 @@
     <t>LED 43</t>
   </si>
   <si>
-    <t>LEDO1</t>
-  </si>
-  <si>
-    <t>LEDO2</t>
-  </si>
-  <si>
-    <t>LEDO3</t>
-  </si>
-  <si>
     <t>Bat1</t>
   </si>
   <si>
@@ -812,9 +628,6 @@
     <t>Bat3</t>
   </si>
   <si>
-    <t>J6</t>
-  </si>
-  <si>
     <t>Wire6</t>
   </si>
   <si>
@@ -876,6 +689,48 @@
   </si>
   <si>
     <t>LED 49</t>
+  </si>
+  <si>
+    <t>LED Out1</t>
+  </si>
+  <si>
+    <t>LED Out2</t>
+  </si>
+  <si>
+    <t>LED Out3</t>
+  </si>
+  <si>
+    <t>LED Out4</t>
+  </si>
+  <si>
+    <t>Button CodeOK</t>
+  </si>
+  <si>
+    <t>Button CodeCLR</t>
+  </si>
+  <si>
+    <t>Morse</t>
+  </si>
+  <si>
+    <t>Code5</t>
+  </si>
+  <si>
+    <t>Code6</t>
+  </si>
+  <si>
+    <t>Button Timer1</t>
+  </si>
+  <si>
+    <t>Button Timer2</t>
+  </si>
+  <si>
+    <t>LED Detonate</t>
+  </si>
+  <si>
+    <t>LED Hold</t>
+  </si>
+  <si>
+    <t>LED Abort</t>
   </si>
 </sst>
 </file>
@@ -1235,12 +1090,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC573C7-BB1A-4DA3-B66F-5451EF079776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0834993-2D73-4890-85C5-FC2C85A13B6A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1258,41 +1111,74 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1300,13 +1186,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,13 +1197,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,13 +1208,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1342,13 +1219,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1356,13 +1230,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1370,13 +1241,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,10 +1252,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,10 +1263,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>155</v>
+      </c>
+      <c r="D14">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1406,10 +1277,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>144</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,10 +1291,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>145</v>
+      </c>
+      <c r="D16">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1428,10 +1305,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>146</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,19 +1319,25 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" t="s">
-        <v>222</v>
+        <v>147</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1480,13 +1366,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" t="s">
-        <v>175</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1494,13 +1377,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1508,13 +1388,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,13 +1399,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" t="s">
-        <v>178</v>
+        <v>116</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,13 +1413,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" t="s">
-        <v>179</v>
+        <v>117</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,13 +1427,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" t="s">
-        <v>180</v>
+        <v>118</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,13 +1441,13 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D28" t="s">
-        <v>181</v>
+        <v>119</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,13 +1455,13 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D29" t="s">
-        <v>182</v>
+        <v>120</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,13 +1469,13 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" t="s">
-        <v>183</v>
+        <v>121</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,13 +1483,13 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" t="s">
-        <v>184</v>
+        <v>122</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,13 +1497,13 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" t="s">
-        <v>185</v>
+        <v>123</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1634,13 +1511,13 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" t="s">
-        <v>186</v>
+        <v>124</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1648,13 +1525,13 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" t="s">
-        <v>187</v>
+        <v>115</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1662,13 +1539,13 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" t="s">
-        <v>188</v>
+        <v>222</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1676,13 +1553,13 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" t="s">
-        <v>189</v>
+        <v>223</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1690,13 +1567,13 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" t="s">
-        <v>190</v>
+        <v>126</v>
+      </c>
+      <c r="D37">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,13 +1581,13 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
         <v>127</v>
       </c>
-      <c r="C38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" t="s">
-        <v>191</v>
+      <c r="D38">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1718,13 +1595,13 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" t="s">
-        <v>192</v>
+        <v>128</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1732,13 +1609,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" t="s">
-        <v>193</v>
+        <v>129</v>
+      </c>
+      <c r="D40">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1746,13 +1623,13 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" t="s">
-        <v>194</v>
+        <v>130</v>
+      </c>
+      <c r="D41">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,13 +1637,13 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" t="s">
-        <v>195</v>
+        <v>131</v>
+      </c>
+      <c r="D42">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,13 +1651,13 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
-      </c>
-      <c r="D43" t="s">
-        <v>196</v>
+        <v>132</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,13 +1665,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" t="s">
-        <v>208</v>
+        <v>133</v>
+      </c>
+      <c r="D44">
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,13 +1679,13 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" t="s">
-        <v>209</v>
+        <v>134</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,13 +1693,13 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
-      </c>
-      <c r="D46" t="s">
-        <v>210</v>
+        <v>135</v>
+      </c>
+      <c r="D46">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1830,13 +1707,13 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" t="s">
-        <v>211</v>
+        <v>142</v>
+      </c>
+      <c r="D47">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,13 +1732,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" t="s">
-        <v>197</v>
+        <v>137</v>
+      </c>
+      <c r="D49">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,13 +1746,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" t="s">
-        <v>198</v>
+        <v>138</v>
+      </c>
+      <c r="D50">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,13 +1760,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
         <v>139</v>
       </c>
-      <c r="C51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" t="s">
-        <v>200</v>
+      <c r="D51">
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,13 +1774,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" t="s">
-        <v>201</v>
+        <v>140</v>
+      </c>
+      <c r="D52">
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,13 +1788,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" t="s">
-        <v>199</v>
+        <v>141</v>
+      </c>
+      <c r="D53">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,13 +1802,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
-      </c>
-      <c r="D54" t="s">
-        <v>258</v>
+        <v>197</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,13 +1816,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
-      </c>
-      <c r="D55" t="s">
-        <v>202</v>
+        <v>149</v>
+      </c>
+      <c r="D55">
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,13 +1830,13 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" t="s">
-        <v>203</v>
+        <v>150</v>
+      </c>
+      <c r="D56">
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,13 +1844,13 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
         <v>151</v>
       </c>
-      <c r="C57" t="s">
-        <v>154</v>
-      </c>
-      <c r="D57" t="s">
-        <v>204</v>
+      <c r="D57">
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,13 +1858,13 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" t="s">
-        <v>205</v>
+        <v>152</v>
+      </c>
+      <c r="D58">
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,13 +1872,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" t="s">
-        <v>206</v>
+        <v>153</v>
+      </c>
+      <c r="D59">
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,23 +1886,41 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
-      </c>
-      <c r="D60" t="s">
-        <v>207</v>
+        <v>154</v>
+      </c>
+      <c r="D60">
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" t="s">
+        <v>227</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,214 +1940,214 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>79</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>80</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>83</v>
-      </c>
-      <c r="I2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J4" t="s">
-        <v>217</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J6" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="I8" t="s">
-        <v>261</v>
+        <v>199</v>
       </c>
       <c r="J8" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I9" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="I10" t="s">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="J10" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470E04E2-6044-472D-93DD-0676B255202A}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -2279,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
@@ -2288,7 +2183,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2296,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2310,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,13 +2219,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2338,13 +2233,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,13 +2247,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,13 +2261,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,13 +2275,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,13 +2289,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,13 +2303,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,13 +2317,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,13 +2331,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,13 +2345,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,13 +2359,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,13 +2373,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,13 +2387,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,13 +2401,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,13 +2415,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,13 +2429,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2548,13 +2443,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2562,13 +2457,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,98 +2471,17 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EA0975-CB45-4880-8304-B0B4D2486737}">
-  <dimension ref="B2:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/KeepTalking_Pins.xlsx
+++ b/KeepTalking_Pins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien\Elektronik\Projekte\KeepTalkingBomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34776ADC-FBA3-43BF-BD6E-21E0F3935B32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9891ECDF-48FB-46A0-BBA8-00032302EA78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{CEE79296-99E1-4E94-89D5-6769C9BCDA9F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="234">
   <si>
     <t>Pin</t>
   </si>
@@ -706,24 +706,9 @@
     <t>Button CodeOK</t>
   </si>
   <si>
-    <t>Button CodeCLR</t>
-  </si>
-  <si>
     <t>Morse</t>
   </si>
   <si>
-    <t>Code5</t>
-  </si>
-  <si>
-    <t>Code6</t>
-  </si>
-  <si>
-    <t>Button Timer1</t>
-  </si>
-  <si>
-    <t>Button Timer2</t>
-  </si>
-  <si>
     <t>LED Detonate</t>
   </si>
   <si>
@@ -731,6 +716,27 @@
   </si>
   <si>
     <t>LED Abort</t>
+  </si>
+  <si>
+    <t>Button Timer</t>
+  </si>
+  <si>
+    <t>LED Morse</t>
+  </si>
+  <si>
+    <t>CodeX1</t>
+  </si>
+  <si>
+    <t>CodeX2</t>
+  </si>
+  <si>
+    <t>CodeX3</t>
+  </si>
+  <si>
+    <t>Random seed</t>
+  </si>
+  <si>
+    <t>Vibrator</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0834993-2D73-4890-85C5-FC2C85A13B6A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1119,13 +1127,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,13 +1138,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3">
-        <v>42</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,13 +1149,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4">
-        <v>43</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,13 +1160,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5">
-        <v>44</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1178,7 +1174,7 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,10 +1182,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,10 +1193,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1211,7 +1207,7 @@
         <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,10 +1215,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1230,10 +1226,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1241,10 +1237,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>220</v>
+        <v>144</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,10 +1251,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>145</v>
+      </c>
+      <c r="D13">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1263,13 +1265,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1280,10 +1282,10 @@
         <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1291,13 +1293,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,13 +1307,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,13 +1321,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,10 +1335,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>159</v>
+      </c>
+      <c r="D19">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1399,13 +1404,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1416,10 +1418,10 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1430,10 +1432,10 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1444,10 +1446,10 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1458,10 +1460,10 @@
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1472,10 +1474,10 @@
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1486,10 +1488,10 @@
         <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1500,10 +1502,10 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1514,10 +1516,10 @@
         <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1528,10 +1530,10 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1542,10 +1544,10 @@
         <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
+        <v>115</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1556,10 +1558,10 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,7 +1575,7 @@
         <v>126</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,7 +1589,7 @@
         <v>127</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,7 +1603,7 @@
         <v>128</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,7 +1617,7 @@
         <v>129</v>
       </c>
       <c r="D40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,7 +1631,7 @@
         <v>130</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,7 +1645,7 @@
         <v>131</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1657,7 +1659,7 @@
         <v>132</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1671,7 +1673,7 @@
         <v>133</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1685,7 +1687,7 @@
         <v>134</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1699,7 +1701,7 @@
         <v>135</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1713,7 +1715,7 @@
         <v>142</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1738,7 +1740,7 @@
         <v>137</v>
       </c>
       <c r="D49">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1752,7 +1754,7 @@
         <v>138</v>
       </c>
       <c r="D50">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1766,7 +1768,7 @@
         <v>139</v>
       </c>
       <c r="D51">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,7 +1782,7 @@
         <v>140</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1794,7 +1796,7 @@
         <v>141</v>
       </c>
       <c r="D53">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1808,7 +1810,7 @@
         <v>197</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1822,7 +1824,7 @@
         <v>149</v>
       </c>
       <c r="D55">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1836,7 +1838,7 @@
         <v>150</v>
       </c>
       <c r="D56">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,7 +1852,7 @@
         <v>151</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,7 +1866,7 @@
         <v>152</v>
       </c>
       <c r="D58">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,7 +1880,7 @@
         <v>153</v>
       </c>
       <c r="D59">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,7 +1894,7 @@
         <v>154</v>
       </c>
       <c r="D60">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,10 +1916,10 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -1926,6 +1928,12 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -1940,7 +1948,7 @@
   <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2084,7 +2092,7 @@
         <v>114</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2105,7 +2113,7 @@
         <v>199</v>
       </c>
       <c r="J8" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -2120,13 +2128,13 @@
         <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="J9" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -2141,10 +2149,10 @@
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="J10" t="s">
         <v>196</v>

--- a/KeepTalking_Pins.xlsx
+++ b/KeepTalking_Pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dateien\Elektronik\Projekte\KeepTalkingBomb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9891ECDF-48FB-46A0-BBA8-00032302EA78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5702DD91-58E2-49FC-BB73-5A048E90B235}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{CEE79296-99E1-4E94-89D5-6769C9BCDA9F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{CEE79296-99E1-4E94-89D5-6769C9BCDA9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arduino Mega" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="337">
   <si>
     <t>Pin</t>
   </si>
@@ -328,18 +328,6 @@
     <t>MAX7219</t>
   </si>
   <si>
-    <t>Code1</t>
-  </si>
-  <si>
-    <t>Code2</t>
-  </si>
-  <si>
-    <t>Code3</t>
-  </si>
-  <si>
-    <t>Code4</t>
-  </si>
-  <si>
     <t>Keypad1</t>
   </si>
   <si>
@@ -574,51 +562,6 @@
     <t>Button2</t>
   </si>
   <si>
-    <t>LED 29</t>
-  </si>
-  <si>
-    <t>LED 30</t>
-  </si>
-  <si>
-    <t>LED 31</t>
-  </si>
-  <si>
-    <t>LED 32</t>
-  </si>
-  <si>
-    <t>LED 33</t>
-  </si>
-  <si>
-    <t>LED 34</t>
-  </si>
-  <si>
-    <t>LED 35</t>
-  </si>
-  <si>
-    <t>LED 36</t>
-  </si>
-  <si>
-    <t>LED 37</t>
-  </si>
-  <si>
-    <t>LED 38</t>
-  </si>
-  <si>
-    <t>LED 39</t>
-  </si>
-  <si>
-    <t>LED 40</t>
-  </si>
-  <si>
-    <t>LED 41</t>
-  </si>
-  <si>
-    <t>LED 42</t>
-  </si>
-  <si>
-    <t>LED 43</t>
-  </si>
-  <si>
     <t>Bat1</t>
   </si>
   <si>
@@ -673,24 +616,6 @@
     <t>Wire6b</t>
   </si>
   <si>
-    <t>LED 44</t>
-  </si>
-  <si>
-    <t>LED 45</t>
-  </si>
-  <si>
-    <t>LED 46</t>
-  </si>
-  <si>
-    <t>LED 47</t>
-  </si>
-  <si>
-    <t>LED 48</t>
-  </si>
-  <si>
-    <t>LED 49</t>
-  </si>
-  <si>
     <t>LED Out1</t>
   </si>
   <si>
@@ -737,6 +662,390 @@
   </si>
   <si>
     <t>Vibrator</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>S13</t>
+  </si>
+  <si>
+    <t>S14</t>
+  </si>
+  <si>
+    <t>S15</t>
+  </si>
+  <si>
+    <t>S16</t>
+  </si>
+  <si>
+    <t>S17</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>S35</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S24</t>
+  </si>
+  <si>
+    <t>S25</t>
+  </si>
+  <si>
+    <t>S26</t>
+  </si>
+  <si>
+    <t>S27</t>
+  </si>
+  <si>
+    <t>S28</t>
+  </si>
+  <si>
+    <t>S29</t>
+  </si>
+  <si>
+    <t>S36</t>
+  </si>
+  <si>
+    <t>S37</t>
+  </si>
+  <si>
+    <t>S38</t>
+  </si>
+  <si>
+    <t>PIN1</t>
+  </si>
+  <si>
+    <t>PIN2</t>
+  </si>
+  <si>
+    <t>PIN3</t>
+  </si>
+  <si>
+    <t>PIN4</t>
+  </si>
+  <si>
+    <t>Digit</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>LED Pin1</t>
+  </si>
+  <si>
+    <t>LED Keypad1</t>
+  </si>
+  <si>
+    <t>LED Wire1</t>
+  </si>
+  <si>
+    <t>LED Simon1</t>
+  </si>
+  <si>
+    <t>LED Pin2</t>
+  </si>
+  <si>
+    <t>LED Pin3</t>
+  </si>
+  <si>
+    <t>LED Pin4</t>
+  </si>
+  <si>
+    <t>LED Keypad2</t>
+  </si>
+  <si>
+    <t>LED Wire2</t>
+  </si>
+  <si>
+    <t>LED Simon2</t>
+  </si>
+  <si>
+    <t>LED Keypad3</t>
+  </si>
+  <si>
+    <t>LED Keypad4</t>
+  </si>
+  <si>
+    <t>LED Wire3</t>
+  </si>
+  <si>
+    <t>LED Wire4</t>
+  </si>
+  <si>
+    <t>LED Wire5</t>
+  </si>
+  <si>
+    <t>LED Wire6</t>
+  </si>
+  <si>
+    <t>LED WireStar1</t>
+  </si>
+  <si>
+    <t>LED WireStar2</t>
+  </si>
+  <si>
+    <t>LED WireStar3</t>
+  </si>
+  <si>
+    <t>LED WireStar4</t>
+  </si>
+  <si>
+    <t>LED WireStar5</t>
+  </si>
+  <si>
+    <t>LED WireStar6</t>
+  </si>
+  <si>
+    <t>LED Strike1</t>
+  </si>
+  <si>
+    <t>LED Strike2</t>
+  </si>
+  <si>
+    <t>LED Bat1</t>
+  </si>
+  <si>
+    <t>LED Bat2</t>
+  </si>
+  <si>
+    <t>LED Simon3</t>
+  </si>
+  <si>
+    <t>LED Simon4</t>
+  </si>
+  <si>
+    <t>LED PinX1</t>
+  </si>
+  <si>
+    <t>LED PinX2</t>
+  </si>
+  <si>
+    <t>LED PinX3</t>
+  </si>
+  <si>
+    <t>LED Bat3</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>LED3</t>
+  </si>
+  <si>
+    <t>LED4</t>
+  </si>
+  <si>
+    <t>LED5</t>
+  </si>
+  <si>
+    <t>LED6</t>
+  </si>
+  <si>
+    <t>LED7</t>
+  </si>
+  <si>
+    <t>LED8</t>
+  </si>
+  <si>
+    <t>LED9</t>
+  </si>
+  <si>
+    <t>LED10</t>
+  </si>
+  <si>
+    <t>LED11</t>
+  </si>
+  <si>
+    <t>LED12</t>
+  </si>
+  <si>
+    <t>LED13</t>
+  </si>
+  <si>
+    <t>LED14</t>
+  </si>
+  <si>
+    <t>LED15</t>
+  </si>
+  <si>
+    <t>LED16</t>
+  </si>
+  <si>
+    <t>LED17</t>
+  </si>
+  <si>
+    <t>LED18</t>
+  </si>
+  <si>
+    <t>LED19</t>
+  </si>
+  <si>
+    <t>LED20</t>
+  </si>
+  <si>
+    <t>LED21</t>
+  </si>
+  <si>
+    <t>LED22</t>
+  </si>
+  <si>
+    <t>LED23</t>
+  </si>
+  <si>
+    <t>LED24</t>
+  </si>
+  <si>
+    <t>LED25</t>
+  </si>
+  <si>
+    <t>LED26</t>
+  </si>
+  <si>
+    <t>LED27</t>
+  </si>
+  <si>
+    <t>LED28</t>
+  </si>
+  <si>
+    <t>RGB1</t>
+  </si>
+  <si>
+    <t>RGB2</t>
+  </si>
+  <si>
+    <t>RGB3</t>
+  </si>
+  <si>
+    <t>RGB4</t>
+  </si>
+  <si>
+    <t>RGB5</t>
+  </si>
+  <si>
+    <t>RGB6</t>
+  </si>
+  <si>
+    <t>RGB7</t>
+  </si>
+  <si>
+    <t>RGB8</t>
+  </si>
+  <si>
+    <t>RGB9</t>
+  </si>
+  <si>
+    <t>RGB10</t>
+  </si>
+  <si>
+    <t>RGB11</t>
+  </si>
+  <si>
+    <t>RGB12</t>
+  </si>
+  <si>
+    <t>RGB13</t>
+  </si>
+  <si>
+    <t>RGB14</t>
+  </si>
+  <si>
+    <t>RGB15</t>
+  </si>
+  <si>
+    <t>RGB16</t>
+  </si>
+  <si>
+    <t>RGB17</t>
+  </si>
+  <si>
+    <t>RGB18</t>
+  </si>
+  <si>
+    <t>RGB19</t>
+  </si>
+  <si>
+    <t>RGB20</t>
+  </si>
+  <si>
+    <t>RGB21</t>
   </si>
 </sst>
 </file>
@@ -778,8 +1087,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0834993-2D73-4890-85C5-FC2C85A13B6A}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1420,7 @@
     <col min="3" max="3" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,10 +1431,13 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1133,7 +1448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1141,10 +1456,10 @@
         <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1152,10 +1467,10 @@
         <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1163,10 +1478,10 @@
         <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1174,10 +1489,10 @@
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1185,166 +1500,190 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D12">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D14">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
         <v>143</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
       </c>
       <c r="D15">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D17">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D18">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D19">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1355,7 +1694,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1377,7 +1716,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1388,7 +1727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1399,7 +1738,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1410,7 +1749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1418,13 +1757,16 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1432,13 +1774,16 @@
         <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1446,13 +1791,16 @@
         <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1460,13 +1808,16 @@
         <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1474,13 +1825,16 @@
         <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1488,13 +1842,16 @@
         <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1502,13 +1859,16 @@
         <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D32">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1516,13 +1876,16 @@
         <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1530,13 +1893,16 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1544,13 +1910,16 @@
         <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D35">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1558,167 +1927,203 @@
         <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="D36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D37">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
         <v>125</v>
-      </c>
-      <c r="C40" t="s">
-        <v>129</v>
       </c>
       <c r="D40">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D42">
         <v>18</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D44">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D45">
         <v>21</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D46">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D47">
         <v>23</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1729,175 +2134,193 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D49">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D50">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D51">
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" t="s">
         <v>136</v>
-      </c>
-      <c r="C52" t="s">
-        <v>140</v>
       </c>
       <c r="D52">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D53">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D54">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D55">
         <v>30</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D56">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D57">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" t="s">
         <v>148</v>
-      </c>
-      <c r="C58" t="s">
-        <v>152</v>
       </c>
       <c r="D58">
         <v>33</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D59">
         <v>34</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D60">
         <v>35</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1905,27 +2328,33 @@
         <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -1933,7 +2362,7 @@
         <v>50</v>
       </c>
       <c r="C63" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1945,15 +2374,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52AF25C-E928-42BE-A6FE-AAD92C865A2F}">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B2:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="20.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>96</v>
       </c>
@@ -1981,181 +2414,724 @@
       <c r="J2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" t="s">
         <v>101</v>
       </c>
-      <c r="H3" t="s">
-        <v>105</v>
-      </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" t="s">
         <v>102</v>
       </c>
-      <c r="H4" t="s">
-        <v>106</v>
-      </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>254</v>
+      </c>
+      <c r="O4" t="s">
+        <v>260</v>
+      </c>
+      <c r="P4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" t="s">
         <v>103</v>
       </c>
-      <c r="H5" t="s">
-        <v>107</v>
-      </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>254</v>
+      </c>
+      <c r="O5" t="s">
+        <v>261</v>
+      </c>
+      <c r="P5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
-        <v>108</v>
-      </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>254</v>
+      </c>
+      <c r="O6" t="s">
+        <v>262</v>
+      </c>
+      <c r="P6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" t="s">
         <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" t="s">
         <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="I8" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" t="s">
+        <v>263</v>
+      </c>
+      <c r="P8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
         <v>99</v>
       </c>
       <c r="H9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" t="s">
+        <v>266</v>
+      </c>
+      <c r="P9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" t="s">
         <v>100</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J10" t="s">
-        <v>196</v>
+        <v>177</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" t="s">
+        <v>267</v>
+      </c>
+      <c r="P10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>255</v>
+      </c>
+      <c r="O11" t="s">
+        <v>258</v>
+      </c>
+      <c r="P11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>255</v>
+      </c>
+      <c r="O12" t="s">
+        <v>264</v>
+      </c>
+      <c r="P12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O13" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>255</v>
+      </c>
+      <c r="O14" t="s">
+        <v>269</v>
+      </c>
+      <c r="P14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>255</v>
+      </c>
+      <c r="O15" t="s">
+        <v>270</v>
+      </c>
+      <c r="P15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16" t="s">
+        <v>271</v>
+      </c>
+      <c r="P16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" t="s">
+        <v>279</v>
+      </c>
+      <c r="P18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>6</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>255</v>
+      </c>
+      <c r="O19" t="s">
+        <v>272</v>
+      </c>
+      <c r="P19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>255</v>
+      </c>
+      <c r="O20" t="s">
+        <v>273</v>
+      </c>
+      <c r="P20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>6</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>255</v>
+      </c>
+      <c r="O21" t="s">
+        <v>274</v>
+      </c>
+      <c r="P21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>6</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>255</v>
+      </c>
+      <c r="O22" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>6</v>
+      </c>
+      <c r="M23" s="1">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>255</v>
+      </c>
+      <c r="O23" t="s">
+        <v>276</v>
+      </c>
+      <c r="P23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>6</v>
+      </c>
+      <c r="M24" s="1">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>255</v>
+      </c>
+      <c r="O24" t="s">
+        <v>277</v>
+      </c>
+      <c r="P24" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>6</v>
+      </c>
+      <c r="M25" s="1">
+        <v>6</v>
+      </c>
+      <c r="N25" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25" t="s">
+        <v>280</v>
+      </c>
+      <c r="P25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26" t="s">
+        <v>281</v>
+      </c>
+      <c r="P26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>7</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
+        <v>156</v>
+      </c>
+      <c r="O27" t="s">
+        <v>259</v>
+      </c>
+      <c r="P27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>7</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>156</v>
+      </c>
+      <c r="O28" t="s">
+        <v>265</v>
+      </c>
+      <c r="P28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>7</v>
+      </c>
+      <c r="M29" s="1">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>156</v>
+      </c>
+      <c r="O29" t="s">
+        <v>282</v>
+      </c>
+      <c r="P29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>7</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>156</v>
+      </c>
+      <c r="O30" t="s">
+        <v>283</v>
+      </c>
+      <c r="P30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>7</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>284</v>
+      </c>
+      <c r="P31" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="32" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>7</v>
+      </c>
+      <c r="M32" s="1">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>254</v>
+      </c>
+      <c r="O32" t="s">
+        <v>285</v>
+      </c>
+      <c r="P32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1">
+        <v>6</v>
+      </c>
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" t="s">
+        <v>286</v>
+      </c>
+      <c r="P33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>7</v>
+      </c>
+      <c r="M34" s="1">
+        <v>7</v>
+      </c>
+      <c r="N34" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" t="s">
+        <v>287</v>
+      </c>
+      <c r="P34" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2174,15 +3150,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470E04E2-6044-472D-93DD-0676B255202A}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
@@ -2191,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2199,13 +3175,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2213,13 +3189,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2227,13 +3203,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2241,13 +3217,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2255,13 +3231,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2269,13 +3245,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2283,13 +3259,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2297,13 +3273,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2311,13 +3287,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2325,13 +3301,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2339,13 +3315,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2353,13 +3329,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2367,13 +3343,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2381,13 +3357,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2395,13 +3371,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,13 +3385,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2423,13 +3399,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2437,13 +3413,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D19" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2451,13 +3427,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2465,13 +3441,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2479,13 +3455,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
